--- a/ESPN sports website/IPL/Mumbai Indians/Kieron Pollard.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Kieron Pollard.xlsx
@@ -445,10 +445,10 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 09, 2022</v>
+        <v>March 27, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>RCB won by 7 wickets (with 9 balls remaining)</v>
+        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C3" t="str">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>440.00</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I3" t="str">
         <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>April 06, 2022</v>
+        <v>April 09, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>RCB won by 7 wickets (with 9 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C5" t="str">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>50.00</v>
+        <v>155.55</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>March 27, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C6" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="str">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>93.75</v>
+        <v>71.42</v>
       </c>
       <c r="H6" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I6" t="str">
         <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>May 09, 2022</v>
+        <v>April 30, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C7" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" t="str">
         <v>14</v>
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>71.42</v>
+        <v>28.57</v>
       </c>
       <c r="H7" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J7" t="str">
-        <v>April 30, 2022</v>
+        <v>May 06, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
+        <v>Mumbai won by 5 runs</v>
       </c>
     </row>
     <row r="8">
@@ -690,10 +690,10 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C9" t="str">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="str">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
@@ -702,19 +702,19 @@
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <v>95.00</v>
+        <v>93.75</v>
       </c>
       <c r="H9" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I9" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J9" t="str">
-        <v>April 24, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Super Giants won by 36 runs</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C10" t="str">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="str">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E10" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <v>155.55</v>
+        <v>95.00</v>
       </c>
       <c r="H10" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I10" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J10" t="str">
-        <v>April 21, 2022</v>
+        <v>April 24, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>Super Giants won by 36 runs</v>
       </c>
     </row>
     <row r="11">
@@ -760,31 +760,31 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C11" t="str">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D11" t="str">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="str">
-        <v>90.90</v>
+        <v>440.00</v>
       </c>
       <c r="H11" t="str">
-        <v>Punjab Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I11" t="str">
         <v>Pune</v>
       </c>
       <c r="J11" t="str">
-        <v>April 13, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>Punjab Kings won by 12 runs</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="12">
@@ -795,31 +795,31 @@
         <v>Kieron Pollard</v>
       </c>
       <c r="C12" t="str">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" t="str">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="str">
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>28.57</v>
+        <v>90.90</v>
       </c>
       <c r="H12" t="str">
-        <v>Gujarat Titans</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I12" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J12" t="str">
-        <v>May 06, 2022</v>
+        <v>April 13, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v>Punjab Kings won by 12 runs</v>
       </c>
     </row>
   </sheetData>
